--- a/Test_A.xlsx
+++ b/Test_A.xlsx
@@ -15,34 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="3">
   <si>
-    <t>roll</t>
+    <t>Var1</t>
   </si>
   <si>
-    <t>160.94</t>
+    <t>Var2</t>
   </si>
   <si>
-    <t>pitch</t>
-  </si>
-  <si>
-    <t>13.51</t>
-  </si>
-  <si>
-    <t>yaw</t>
-  </si>
-  <si>
-    <t>134.87
-</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>tension</t>
-  </si>
-  <si>
-    <t>model_400</t>
+    <t>Var3</t>
   </si>
 </sst>
 </file>
@@ -63,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -75,16 +56,72 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,30 +135,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" customWidth="true"/>
-    <col min="3" max="3" width="3.7109375" customWidth="true"/>
+    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>76.920000000000002</v>
+      </c>
+      <c r="B2">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="C2">
+        <v>-80.069999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -130,28 +167,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C330"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="9.7109375" customWidth="true"/>
+    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>101</v>
+        <v>605</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -162,18 +199,18 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2013</v>
+        <v>705</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3441</v>
+        <v>806</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -184,7 +221,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>3743</v>
+        <v>907</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -195,7 +232,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>3843</v>
+        <v>1007</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -206,7 +243,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>4264</v>
+        <v>1109</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -216,9 +253,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>4466</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -228,7 +262,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>4566</v>
+        <v>1310</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -239,7 +273,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>4666</v>
+        <v>1411</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -250,7 +284,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>4768</v>
+        <v>1512</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -261,7 +295,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4868</v>
+        <v>1613</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -272,7 +306,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>4968</v>
+        <v>1714</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -283,7 +317,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>5070</v>
+        <v>1814</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -294,7 +328,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>5170</v>
+        <v>1916</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -305,7 +339,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>5270</v>
+        <v>2016</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -316,7 +350,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>5371</v>
+        <v>2135</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -327,7 +361,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>5472</v>
+        <v>2236</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -338,7 +372,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>5572</v>
+        <v>2337</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -349,7 +383,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>5673</v>
+        <v>2438</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -360,7 +394,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>5774</v>
+        <v>2538</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -371,7 +405,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>5875</v>
+        <v>2640</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -382,7 +416,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>5975</v>
+        <v>2740</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -393,7 +427,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>6075</v>
+        <v>2841</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -404,7 +438,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6195</v>
+        <v>2942</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -415,7 +449,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>6295</v>
+        <v>3042</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -426,7 +460,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>6396</v>
+        <v>3143</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -437,7 +471,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6598</v>
+        <v>3244</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -448,7 +482,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>6698</v>
+        <v>3345</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -459,7 +493,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>6798</v>
+        <v>3446</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -470,7 +504,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>6900</v>
+        <v>3547</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -481,7 +515,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>7000</v>
+        <v>3647</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -492,7 +526,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>7100</v>
+        <v>3749</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -503,7 +537,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>7302</v>
+        <v>3849</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -514,7 +548,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>7402</v>
+        <v>3950</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -525,7 +559,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>7503</v>
+        <v>4051</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -536,7 +570,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>7604</v>
+        <v>4170</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -547,7 +581,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>7704</v>
+        <v>4271</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -558,7 +592,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>7805</v>
+        <v>4371</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -569,7 +603,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>7906</v>
+        <v>4473</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -580,7 +614,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>8007</v>
+        <v>4573</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -591,7 +625,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>8107</v>
+        <v>4674</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -602,7 +636,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>8226</v>
+        <v>4775</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -613,7 +647,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>8327</v>
+        <v>4876</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -624,7 +658,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>8427</v>
+        <v>4976</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -635,7 +669,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>8528</v>
+        <v>5078</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -646,18 +680,18 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>8628</v>
+        <v>5882</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>8729</v>
+        <v>5983</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -668,106 +702,106 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>8830</v>
+        <v>6084</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>8930</v>
+        <v>6203</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>9032</v>
+        <v>6303</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>9132</v>
+        <v>6404</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>9232</v>
+        <v>6505</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>9333</v>
+        <v>6606</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>9434</v>
+        <v>6707</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>9534</v>
+        <v>6807</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>9635</v>
+        <v>6908</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>9736</v>
+        <v>7009</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -778,10 +812,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>9836</v>
+        <v>6715</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -789,10 +823,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>9937</v>
+        <v>6816</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -800,10 +834,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>10038</v>
+        <v>6916</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -811,10 +845,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>10138</v>
+        <v>7018</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="C62">
         <v>-1</v>
@@ -822,10 +856,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>10257</v>
+        <v>7118</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -833,10 +867,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>10358</v>
+        <v>7219</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -844,10 +878,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>10459</v>
+        <v>7320</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -855,10 +889,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>10559</v>
+        <v>7421</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -866,10 +900,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>10660</v>
+        <v>7521</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -877,10 +911,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>10761</v>
+        <v>7623</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -888,10 +922,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>10861</v>
+        <v>7723</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -899,10 +933,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>10962</v>
+        <v>7825</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -910,10 +944,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>11063</v>
+        <v>7926</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -921,10 +955,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>11164</v>
+        <v>8026</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -932,10 +966,10 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>11264</v>
+        <v>8128</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -943,10 +977,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>11365</v>
+        <v>8246</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -954,10 +988,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>11466</v>
+        <v>8348</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1.0800000000000001</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -965,10 +999,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>11566</v>
+        <v>8448</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -976,10 +1010,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>11667</v>
+        <v>8550</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -987,10 +1021,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>11768</v>
+        <v>8650</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -998,10 +1032,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>11868</v>
+        <v>8751</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -1009,10 +1043,10 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>11969</v>
+        <v>8852</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -1020,10 +1054,10 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>12070</v>
+        <v>8953</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -1031,10 +1065,10 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>12170</v>
+        <v>9053</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C82">
         <v>-1</v>
@@ -1042,10 +1076,10 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>12289</v>
+        <v>9155</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -1053,10 +1087,10 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>12390</v>
+        <v>9255</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C84">
         <v>-1</v>
@@ -1064,10 +1098,10 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>12491</v>
+        <v>9356</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C85">
         <v>-1</v>
@@ -1075,10 +1109,10 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>12591</v>
+        <v>9457</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C86">
         <v>-1</v>
@@ -1086,10 +1120,10 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>12692</v>
+        <v>9558</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C87">
         <v>-1</v>
@@ -1097,10 +1131,10 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>12793</v>
+        <v>9659</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C88">
         <v>-1</v>
@@ -1108,10 +1142,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>12893</v>
+        <v>9760</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1.0600000000000001</v>
       </c>
       <c r="C89">
         <v>-1</v>
@@ -1119,10 +1153,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>12994</v>
+        <v>9860</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C90">
         <v>-1</v>
@@ -1130,10 +1164,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>13095</v>
+        <v>9962</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="C91">
         <v>-1</v>
@@ -1141,10 +1175,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>13195</v>
+        <v>10063</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="C92">
         <v>-1</v>
@@ -1152,10 +1186,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>13297</v>
+        <v>10163</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="C93">
         <v>-1</v>
@@ -1163,10 +1197,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>13397</v>
+        <v>10283</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="C94">
         <v>-1</v>
@@ -1174,10 +1208,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>13497</v>
+        <v>10384</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1.4199999999999999</v>
       </c>
       <c r="C95">
         <v>-1</v>
@@ -1185,10 +1219,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>13599</v>
+        <v>10485</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1.3700000000000001</v>
       </c>
       <c r="C96">
         <v>-1</v>
@@ -1196,10 +1230,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>13699</v>
+        <v>10585</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.3100000000000001</v>
       </c>
       <c r="C97">
         <v>-1</v>
@@ -1207,10 +1241,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>13799</v>
+        <v>10687</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C98">
         <v>-1</v>
@@ -1218,10 +1252,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>13901</v>
+        <v>10787</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1.1699999999999999</v>
       </c>
       <c r="C99">
         <v>-1</v>
@@ -1229,10 +1263,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>14001</v>
+        <v>10888</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1.0600000000000001</v>
       </c>
       <c r="C100">
         <v>-1</v>
@@ -1240,10 +1274,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>14101</v>
+        <v>10989</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="C101">
         <v>-1</v>
@@ -1251,10 +1285,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>14203</v>
+        <v>11090</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>-1</v>
@@ -1262,10 +1296,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>14322</v>
+        <v>11191</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1.0700000000000001</v>
       </c>
       <c r="C103">
         <v>-1</v>
@@ -1273,10 +1307,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>14422</v>
+        <v>11292</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C104">
         <v>-1</v>
@@ -1284,10 +1318,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>14522</v>
+        <v>11393</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C105">
         <v>-1</v>
@@ -1295,10 +1329,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>14624</v>
+        <v>11494</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C106">
         <v>-1</v>
@@ -1306,10 +1340,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>14724</v>
+        <v>11595</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C107">
         <v>-1</v>
@@ -1317,10 +1351,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>14824</v>
+        <v>11695</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C108">
         <v>-1</v>
@@ -1328,10 +1362,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>14926</v>
+        <v>11797</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C109">
         <v>-1</v>
@@ -1339,10 +1373,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>15026</v>
+        <v>11898</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="C110">
         <v>-1</v>
@@ -1350,10 +1384,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>15126</v>
+        <v>11998</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="C111">
         <v>-1</v>
@@ -1361,10 +1395,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>15228</v>
+        <v>12100</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="C112">
         <v>-1</v>
@@ -1372,10 +1406,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>15328</v>
+        <v>12200</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="C113">
         <v>-1</v>
@@ -1383,10 +1417,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>15428</v>
+        <v>12320</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C114">
         <v>-1</v>
@@ -1394,10 +1428,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>15530</v>
+        <v>12420</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C115">
         <v>-1</v>
@@ -1405,10 +1439,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>15630</v>
+        <v>12522</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C116">
         <v>-1</v>
@@ -1416,10 +1450,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>15731</v>
+        <v>12622</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C117">
         <v>-1</v>
@@ -1427,10 +1461,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>15832</v>
+        <v>12723</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1.1899999999999999</v>
       </c>
       <c r="C118">
         <v>-1</v>
@@ -1438,10 +1472,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>15932</v>
+        <v>12825</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C119">
         <v>-1</v>
@@ -1449,10 +1483,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>16033</v>
+        <v>12925</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>-1</v>
@@ -1460,10 +1494,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>16134</v>
+        <v>13026</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C121">
         <v>-1</v>
@@ -1471,10 +1505,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>16234</v>
+        <v>13127</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1.1699999999999999</v>
       </c>
       <c r="C122">
         <v>-1</v>
@@ -1482,10 +1516,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>16353</v>
+        <v>13228</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1.0600000000000001</v>
       </c>
       <c r="C123">
         <v>-1</v>
@@ -1493,10 +1527,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>16455</v>
+        <v>13329</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C124">
         <v>-1</v>
@@ -1504,10 +1538,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>16555</v>
+        <v>13430</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C125">
         <v>-1</v>
@@ -1515,10 +1549,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>16655</v>
+        <v>13530</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1.0700000000000001</v>
       </c>
       <c r="C126">
         <v>-1</v>
@@ -1526,10 +1560,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>16757</v>
+        <v>13632</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="C127">
         <v>-1</v>
@@ -1537,10 +1571,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>16857</v>
+        <v>13733</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="C128">
         <v>-1</v>
@@ -1548,10 +1582,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>16957</v>
+        <v>13833</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C129">
         <v>-1</v>
@@ -1559,10 +1593,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>17059</v>
+        <v>13935</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C130">
         <v>-1</v>
@@ -1570,10 +1604,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>17159</v>
+        <v>14035</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="C131">
         <v>-1</v>
@@ -1581,10 +1615,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>17259</v>
+        <v>14136</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C132">
         <v>-1</v>
@@ -1592,10 +1626,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>17360</v>
+        <v>14237</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="C133">
         <v>-1</v>
@@ -1603,10 +1637,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>17461</v>
+        <v>14357</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C134">
         <v>-1</v>
@@ -1614,10 +1648,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>17561</v>
+        <v>14457</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C135">
         <v>-1</v>
@@ -1625,10 +1659,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>17662</v>
+        <v>14558</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C136">
         <v>-1</v>
@@ -1636,10 +1670,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>17763</v>
+        <v>14660</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C137">
         <v>-1</v>
@@ -1647,10 +1681,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>17864</v>
+        <v>14760</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="C138">
         <v>-1</v>
@@ -1658,10 +1692,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>17964</v>
+        <v>14861</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1.3600000000000001</v>
       </c>
       <c r="C139">
         <v>-1</v>
@@ -1669,10 +1703,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>18065</v>
+        <v>14962</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1.3100000000000001</v>
       </c>
       <c r="C140">
         <v>-1</v>
@@ -1680,10 +1714,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>18166</v>
+        <v>15063</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1.1799999999999999</v>
       </c>
       <c r="C141">
         <v>-1</v>
@@ -1691,10 +1725,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>18386</v>
+        <v>15164</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="C142">
         <v>-1</v>
@@ -1702,10 +1736,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>18486</v>
+        <v>15265</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="C143">
         <v>-1</v>
@@ -1713,10 +1747,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>18586</v>
+        <v>15365</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="C144">
         <v>-1</v>
@@ -1724,10 +1758,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>18688</v>
+        <v>15467</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="C145">
         <v>-1</v>
@@ -1735,10 +1769,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>18788</v>
+        <v>15568</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C146">
         <v>-1</v>
@@ -1746,10 +1780,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>18889</v>
+        <v>15668</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1.3500000000000001</v>
       </c>
       <c r="C147">
         <v>-1</v>
@@ -1757,10 +1791,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>18990</v>
+        <v>15770</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1.4399999999999999</v>
       </c>
       <c r="C148">
         <v>-1</v>
@@ -1768,10 +1802,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>19090</v>
+        <v>15870</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C149">
         <v>-1</v>
@@ -1779,10 +1813,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>19191</v>
+        <v>15971</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="C150">
         <v>-1</v>
@@ -1790,10 +1824,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>19291</v>
+        <v>16072</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="C151">
         <v>-1</v>
@@ -1801,10 +1835,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>19392</v>
+        <v>16173</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1.4099999999999999</v>
       </c>
       <c r="C152">
         <v>-1</v>
@@ -1812,10 +1846,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>19493</v>
+        <v>16275</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C153">
         <v>-1</v>
@@ -1823,10 +1857,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>19593</v>
+        <v>16393</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C154">
         <v>-1</v>
@@ -1834,10 +1868,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>19694</v>
+        <v>16495</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C155">
         <v>-1</v>
@@ -1845,10 +1879,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>19795</v>
+        <v>16595</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="C156">
         <v>-1</v>
@@ -1856,10 +1890,10 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>19895</v>
+        <v>16696</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="C157">
         <v>-1</v>
@@ -1867,10 +1901,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>19997</v>
+        <v>16797</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="C158">
         <v>-1</v>
@@ -1878,10 +1912,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>20097</v>
+        <v>16898</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="C159">
         <v>-1</v>
@@ -1889,10 +1923,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>20197</v>
+        <v>16999</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="C160">
         <v>-1</v>
@@ -1900,10 +1934,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>20299</v>
+        <v>17100</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="C161">
         <v>-1</v>
@@ -1911,10 +1945,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>20417</v>
+        <v>17201</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="C162">
         <v>-1</v>
@@ -1922,10 +1956,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>20518</v>
+        <v>17302</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C163">
         <v>-1</v>
@@ -1933,10 +1967,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>20619</v>
+        <v>17403</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="C164">
         <v>-1</v>
@@ -1944,10 +1978,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>20719</v>
+        <v>17503</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="C165">
         <v>-1</v>
@@ -1955,10 +1989,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>20820</v>
+        <v>17605</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C166">
         <v>-1</v>
@@ -1966,21 +2000,18 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>20921</v>
+        <v>17705</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C167">
         <v>-1</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168">
-        <v>21022</v>
-      </c>
       <c r="B168">
-        <v>0</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="C168">
         <v>-1</v>
@@ -1988,10 +2019,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>21122</v>
+        <v>18008</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="C169">
         <v>-1</v>
@@ -1999,7 +2030,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>21223</v>
+        <v>18110</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -2010,10 +2041,10 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>21324</v>
+        <v>18430</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="C171">
         <v>-1</v>
@@ -2021,10 +2052,10 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>21424</v>
+        <v>18531</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>0.42999999999999999</v>
       </c>
       <c r="C172">
         <v>-1</v>
@@ -2032,10 +2063,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>21525</v>
+        <v>18632</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="C173">
         <v>-1</v>
@@ -2043,10 +2074,10 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>21626</v>
+        <v>18733</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="C174">
         <v>-1</v>
@@ -2054,10 +2085,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>21726</v>
+        <v>18834</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C175">
         <v>-1</v>
@@ -2065,10 +2096,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>21826</v>
+        <v>18935</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="C176">
         <v>-1</v>
@@ -2076,10 +2107,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>21928</v>
+        <v>19035</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C177">
         <v>-1</v>
@@ -2087,10 +2118,10 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>22028</v>
+        <v>19137</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C178">
         <v>-1</v>
@@ -2098,10 +2129,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>22129</v>
+        <v>19237</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C179">
         <v>-1</v>
@@ -2109,10 +2140,10 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>22230</v>
+        <v>19338</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="C180">
         <v>-1</v>
@@ -2120,10 +2151,10 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>22330</v>
+        <v>19440</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1.3600000000000001</v>
       </c>
       <c r="C181">
         <v>-1</v>
@@ -2131,10 +2162,10 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>22449</v>
+        <v>19540</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1.3400000000000001</v>
       </c>
       <c r="C182">
         <v>-1</v>
@@ -2142,10 +2173,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>22550</v>
+        <v>19843</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1.0600000000000001</v>
       </c>
       <c r="C183">
         <v>-1</v>
@@ -2153,10 +2184,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>22651</v>
+        <v>19944</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C184">
         <v>-1</v>
@@ -2164,10 +2195,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>22751</v>
+        <v>20045</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="C185">
         <v>-1</v>
@@ -2175,10 +2206,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>22852</v>
+        <v>20146</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C186">
         <v>-1</v>
@@ -2186,10 +2217,10 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>22953</v>
+        <v>20247</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="C187">
         <v>-1</v>
@@ -2197,10 +2228,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>23053</v>
+        <v>20348</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C188">
         <v>-1</v>
@@ -2208,10 +2239,10 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>23155</v>
+        <v>20467</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1.1899999999999999</v>
       </c>
       <c r="C189">
         <v>-1</v>
@@ -2219,10 +2250,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>23255</v>
+        <v>20568</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="C190">
         <v>-1</v>
@@ -2230,10 +2261,10 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>23355</v>
+        <v>20669</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1.3100000000000001</v>
       </c>
       <c r="C191">
         <v>-1</v>
@@ -2241,10 +2272,10 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>23457</v>
+        <v>20972</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="C192">
         <v>-1</v>
@@ -2252,10 +2283,10 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>23557</v>
+        <v>21072</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1.3200000000000001</v>
       </c>
       <c r="C193">
         <v>-1</v>
@@ -2263,10 +2294,10 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>23657</v>
+        <v>21173</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1.3500000000000001</v>
       </c>
       <c r="C194">
         <v>-1</v>
@@ -2274,10 +2305,10 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>23759</v>
+        <v>21275</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1.3500000000000001</v>
       </c>
       <c r="C195">
         <v>-1</v>
@@ -2285,10 +2316,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>23859</v>
+        <v>21375</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1.3500000000000001</v>
       </c>
       <c r="C196">
         <v>-1</v>
@@ -2296,10 +2327,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>23959</v>
+        <v>21477</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C197">
         <v>-1</v>
@@ -2307,10 +2338,10 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>24060</v>
+        <v>21577</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="C198">
         <v>-1</v>
@@ -2318,10 +2349,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>24161</v>
+        <v>21678</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1.3400000000000001</v>
       </c>
       <c r="C199">
         <v>-1</v>
@@ -2329,10 +2360,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>24262</v>
+        <v>21981</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1.3700000000000001</v>
       </c>
       <c r="C200">
         <v>-1</v>
@@ -2340,10 +2371,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>24362</v>
+        <v>22082</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="C201">
         <v>-1</v>
@@ -2351,10 +2382,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>24482</v>
+        <v>22183</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="C202">
         <v>-1</v>
@@ -2362,10 +2393,10 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>24582</v>
+        <v>22283</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1.4399999999999999</v>
       </c>
       <c r="C203">
         <v>-1</v>
@@ -2373,10 +2404,10 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>24682</v>
+        <v>22385</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="C204">
         <v>-1</v>
@@ -2384,10 +2415,10 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>24784</v>
+        <v>22504</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1.4399999999999999</v>
       </c>
       <c r="C205">
         <v>-1</v>
@@ -2395,10 +2426,10 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>24884</v>
+        <v>22605</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1.4299999999999999</v>
       </c>
       <c r="C206">
         <v>-1</v>
@@ -2406,10 +2437,10 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>24984</v>
+        <v>22705</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="C207">
         <v>-1</v>
@@ -2417,10 +2448,10 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>25086</v>
+        <v>22807</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="C208">
         <v>-1</v>
@@ -2428,10 +2459,10 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>25186</v>
+        <v>22908</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C209">
         <v>-1</v>
@@ -2439,10 +2470,10 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>25287</v>
+        <v>23008</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="C210">
         <v>-1</v>
@@ -2450,10 +2481,10 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>25388</v>
+        <v>23110</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="C211">
         <v>-1</v>
@@ -2461,10 +2492,10 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>25488</v>
+        <v>23210</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1.5700000000000001</v>
       </c>
       <c r="C212">
         <v>-1</v>
@@ -2472,10 +2503,10 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>25589</v>
+        <v>23312</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C213">
         <v>-1</v>
@@ -2483,10 +2514,10 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>25690</v>
+        <v>23412</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C214">
         <v>-1</v>
@@ -2494,10 +2525,10 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>25790</v>
+        <v>23513</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C215">
         <v>-1</v>
@@ -2505,10 +2536,10 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>25891</v>
+        <v>23615</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="C216">
         <v>-1</v>
@@ -2516,10 +2547,10 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>25992</v>
+        <v>23715</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C217">
         <v>-1</v>
@@ -2527,10 +2558,10 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>26092</v>
+        <v>23816</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1.6299999999999999</v>
       </c>
       <c r="C218">
         <v>-1</v>
@@ -2538,10 +2569,10 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>26193</v>
+        <v>23917</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="C219">
         <v>-1</v>
@@ -2549,10 +2580,10 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>26293</v>
+        <v>24220</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C220">
         <v>-1</v>
@@ -2560,10 +2591,10 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>26394</v>
+        <v>24321</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="C221">
         <v>-1</v>
@@ -2571,10 +2602,10 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>26513</v>
+        <v>24422</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="C222">
         <v>-1</v>
@@ -2582,10 +2613,10 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>26614</v>
+        <v>24541</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="C223">
         <v>-1</v>
@@ -2593,10 +2624,10 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>26715</v>
+        <v>24642</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="C224">
         <v>-1</v>
@@ -2604,10 +2635,10 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>26815</v>
+        <v>24743</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="C225">
         <v>-1</v>
@@ -2615,10 +2646,10 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>26916</v>
+        <v>43</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1.5900000000000001</v>
       </c>
       <c r="C226">
         <v>-1</v>
@@ -2626,10 +2657,10 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>27017</v>
+        <v>25147</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="C227">
         <v>-1</v>
@@ -2637,10 +2668,10 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>27117</v>
+        <v>25247</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="C228">
         <v>-1</v>
@@ -2648,10 +2679,10 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>27218</v>
+        <v>25348</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1.8700000000000001</v>
       </c>
       <c r="C229">
         <v>-1</v>
@@ -2659,10 +2690,10 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>27319</v>
+        <v>25450</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="C230">
         <v>-1</v>
@@ -2670,10 +2701,10 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>27420</v>
+        <v>25550</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1.8300000000000001</v>
       </c>
       <c r="C231">
         <v>-1</v>
@@ -2681,10 +2712,10 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>27520</v>
+        <v>25651</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="C232">
         <v>-1</v>
@@ -2692,10 +2723,10 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>27621</v>
+        <v>25752</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="C233">
         <v>-1</v>
@@ -2703,10 +2734,10 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>27722</v>
+        <v>25853</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="C234">
         <v>-1</v>
@@ -2714,10 +2745,10 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>27822</v>
+        <v>25953</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="C235">
         <v>-1</v>
@@ -2725,10 +2756,10 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>27923</v>
+        <v>26055</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C236">
         <v>-1</v>
@@ -2736,692 +2767,692 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>28024</v>
+        <v>26156</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C237">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>28124</v>
+        <v>26257</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C238">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>28225</v>
+        <v>26578</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1.6899999999999999</v>
       </c>
       <c r="C239">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>28326</v>
+        <v>26678</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C240">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>28426</v>
+        <v>26780</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="C241">
-        <v>-1</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>28545</v>
+        <v>26881</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="C242">
-        <v>-1</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>28646</v>
+        <v>26982</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="C243">
-        <v>-1</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>28747</v>
+        <v>27083</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="C244">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>28847</v>
+        <v>27183</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="C245">
-        <v>-1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>28948</v>
+        <v>27285</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="C246">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>29049</v>
+        <v>27385</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C247">
-        <v>-1</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>29149</v>
+        <v>27486</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C248">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>29250</v>
+        <v>27588</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1.6699999999999999</v>
       </c>
       <c r="C249">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>29351</v>
+        <v>27688</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C250">
-        <v>-1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>29451</v>
+        <v>27789</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1.6699999999999999</v>
       </c>
       <c r="C251">
-        <v>-1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>29553</v>
+        <v>28092</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C252">
-        <v>-1</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>29653</v>
+        <v>28193</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C253">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>29753</v>
+        <v>28294</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1.6599999999999999</v>
       </c>
       <c r="C254">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>29855</v>
+        <v>28395</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1.6699999999999999</v>
       </c>
       <c r="C255">
-        <v>-1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>29955</v>
+        <v>28496</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C256">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>30055</v>
+        <v>28615</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C257">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>30157</v>
+        <v>28716</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="C258">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>30257</v>
+        <v>28817</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="C259">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>30357</v>
+        <v>28918</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>1.8799999999999999</v>
       </c>
       <c r="C260">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>30458</v>
+        <v>29018</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1.9399999999999999</v>
       </c>
       <c r="C261">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>30578</v>
+        <v>29220</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="C262">
-        <v>-1</v>
+        <v>228</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>30678</v>
+        <v>29321</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="C263">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>30778</v>
+        <v>29523</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="C264">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>30880</v>
+        <v>29624</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="C265">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>30980</v>
+        <v>29725</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="C266">
-        <v>-1</v>
+        <v>221</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>31080</v>
+        <v>29927</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C267">
-        <v>-1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>31182</v>
+        <v>30028</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C268">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>31282</v>
+        <v>30129</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C269">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>31382</v>
+        <v>30230</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C270">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>31484</v>
+        <v>30431</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C271">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>31584</v>
+        <v>30533</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1.6899999999999999</v>
       </c>
       <c r="C272">
-        <v>-1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>31684</v>
+        <v>30652</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C273">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>31786</v>
+        <v>30753</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C274">
-        <v>-1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>31886</v>
+        <v>30854</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="C275">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>31987</v>
+        <v>31156</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C276">
-        <v>-1</v>
+        <v>242</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>32088</v>
+        <v>31258</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1.8600000000000001</v>
       </c>
       <c r="C277">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>32188</v>
+        <v>31358</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1.9199999999999999</v>
       </c>
       <c r="C278">
-        <v>-1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>32289</v>
+        <v>31459</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1.8799999999999999</v>
       </c>
       <c r="C279">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>32389</v>
+        <v>31561</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1.8400000000000001</v>
       </c>
       <c r="C280">
-        <v>-1</v>
+        <v>206</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>32490</v>
+        <v>31661</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>1.8100000000000001</v>
       </c>
       <c r="C281">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>32609</v>
+        <v>31863</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C282">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>32710</v>
+        <v>31964</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C283">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>32811</v>
+        <v>32065</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1.8100000000000001</v>
       </c>
       <c r="C284">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>32911</v>
+        <v>32267</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1.8799999999999999</v>
       </c>
       <c r="C285">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>33012</v>
+        <v>32368</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1.9399999999999999</v>
       </c>
       <c r="C286">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>33113</v>
+        <v>32469</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1.9399999999999999</v>
       </c>
       <c r="C287">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>33213</v>
+        <v>32569</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1.9399999999999999</v>
       </c>
       <c r="C288">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>33314</v>
+        <v>32689</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1.9399999999999999</v>
       </c>
       <c r="C289">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>33415</v>
+        <v>32790</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1.9099999999999999</v>
       </c>
       <c r="C290">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>33515</v>
+        <v>32891</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1.9099999999999999</v>
       </c>
       <c r="C291">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>33616</v>
+        <v>32991</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1.9099999999999999</v>
       </c>
       <c r="C292">
-        <v>-1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>33717</v>
+        <v>33093</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1.9199999999999999</v>
       </c>
       <c r="C293">
-        <v>-1</v>
+        <v>228</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>33817</v>
+        <v>33193</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="C294">
-        <v>-1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>33918</v>
+        <v>33294</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="C295">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>34019</v>
+        <v>33396</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="C296">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>34120</v>
+        <v>33496</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1.9199999999999999</v>
       </c>
       <c r="C297">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>34220</v>
+        <v>33598</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1.9099999999999999</v>
       </c>
       <c r="C298">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>34321</v>
+        <v>33698</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1.8899999999999999</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -3429,10 +3460,10 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>34422</v>
+        <v>33799</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1.8899999999999999</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -3440,10 +3471,10 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>34522</v>
+        <v>33900</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1.8899999999999999</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -3451,10 +3482,10 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>34641</v>
+        <v>34101</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -3462,76 +3493,76 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>34742</v>
+        <v>34203</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>34842</v>
+        <v>34304</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>34943</v>
+        <v>34405</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>2.1200000000000001</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>35043</v>
+        <v>34506</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>2.1400000000000001</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>35145</v>
+        <v>34606</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>2.1400000000000001</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>35245</v>
+        <v>34726</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>2.1299999999999999</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>35345</v>
+        <v>34826</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>2.1299999999999999</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -3539,2114 +3570,233 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>35447</v>
+        <v>34928</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>2.1099999999999999</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>35547</v>
+        <v>35028</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>2.0899999999999999</v>
       </c>
       <c r="C311">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>35647</v>
+        <v>35129</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>35748</v>
+        <v>35433</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>35849</v>
+        <v>35533</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>35949</v>
+        <v>35634</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>36050</v>
+        <v>35736</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>36150</v>
+        <v>35836</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>36252</v>
+        <v>35937</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>36352</v>
+        <v>36038</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>36452</v>
+        <v>36341</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>36554</v>
+        <v>36442</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>36672</v>
+        <v>36543</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>36773</v>
+        <v>36644</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>36873</v>
+        <v>36763</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C324">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>36974</v>
+        <v>36864</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>2.0899999999999999</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>37075</v>
+        <v>36965</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>2.0800000000000001</v>
       </c>
       <c r="C326">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>37175</v>
+        <v>37066</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>2.0899999999999999</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>37276</v>
+        <v>37167</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>37377</v>
+        <v>37268</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>37477</v>
+        <v>37571</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="C330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331">
-        <v>37578</v>
-      </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-      <c r="C331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332">
-        <v>37679</v>
-      </c>
-      <c r="B332">
-        <v>0</v>
-      </c>
-      <c r="C332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333">
-        <v>37779</v>
-      </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-      <c r="C333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334">
-        <v>37880</v>
-      </c>
-      <c r="B334">
-        <v>0</v>
-      </c>
-      <c r="C334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335">
-        <v>37980</v>
-      </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-      <c r="C335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336">
-        <v>38081</v>
-      </c>
-      <c r="B336">
-        <v>0</v>
-      </c>
-      <c r="C336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337">
-        <v>38182</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-      <c r="C337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338">
-        <v>38282</v>
-      </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-      <c r="C338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339">
-        <v>38383</v>
-      </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-      <c r="C339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340">
-        <v>38484</v>
-      </c>
-      <c r="B340">
-        <v>0</v>
-      </c>
-      <c r="C340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341">
-        <v>38584</v>
-      </c>
-      <c r="B341">
-        <v>0</v>
-      </c>
-      <c r="C341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342">
-        <v>38703</v>
-      </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-      <c r="C342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343">
-        <v>38804</v>
-      </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-      <c r="C343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344">
-        <v>38905</v>
-      </c>
-      <c r="B344">
-        <v>0</v>
-      </c>
-      <c r="C344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345">
-        <v>39005</v>
-      </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-      <c r="C345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346">
-        <v>39105</v>
-      </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-      <c r="C346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347">
-        <v>39207</v>
-      </c>
-      <c r="B347">
-        <v>0</v>
-      </c>
-      <c r="C347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348">
-        <v>39307</v>
-      </c>
-      <c r="B348">
-        <v>0</v>
-      </c>
-      <c r="C348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349">
-        <v>39407</v>
-      </c>
-      <c r="B349">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="C349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350">
-        <v>39509</v>
-      </c>
-      <c r="B350">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="C350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351">
-        <v>39609</v>
-      </c>
-      <c r="B351">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352">
-        <v>39710</v>
-      </c>
-      <c r="B352">
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="C352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353">
-        <v>39811</v>
-      </c>
-      <c r="B353">
-        <v>0.22</v>
-      </c>
-      <c r="C353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354">
-        <v>39911</v>
-      </c>
-      <c r="B354">
-        <v>0.25</v>
-      </c>
-      <c r="C354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355">
-        <v>40012</v>
-      </c>
-      <c r="B355">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356">
-        <v>40113</v>
-      </c>
-      <c r="B356">
-        <v>0.33000000000000002</v>
-      </c>
-      <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357">
-        <v>40213</v>
-      </c>
-      <c r="B357">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="C357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358">
-        <v>40314</v>
-      </c>
-      <c r="B358">
-        <v>0.35999999999999999</v>
-      </c>
-      <c r="C358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359">
-        <v>40415</v>
-      </c>
-      <c r="B359">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360">
-        <v>40515</v>
-      </c>
-      <c r="B360">
-        <v>0.44</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361">
-        <v>40617</v>
-      </c>
-      <c r="B361">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362">
-        <v>40736</v>
-      </c>
-      <c r="B362">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="C362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363">
-        <v>40836</v>
-      </c>
-      <c r="B363">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="C363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364">
-        <v>40936</v>
-      </c>
-      <c r="B364">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365">
-        <v>41038</v>
-      </c>
-      <c r="B365">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366">
-        <v>41138</v>
-      </c>
-      <c r="B366">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="C366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367">
-        <v>41238</v>
-      </c>
-      <c r="B367">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="C367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368">
-        <v>41340</v>
-      </c>
-      <c r="B368">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369">
-        <v>41440</v>
-      </c>
-      <c r="B369">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="C369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370">
-        <v>41540</v>
-      </c>
-      <c r="B370">
-        <v>0.44</v>
-      </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371">
-        <v>41642</v>
-      </c>
-      <c r="B371">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="C371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372">
-        <v>41742</v>
-      </c>
-      <c r="B372">
-        <v>0.47999999999999998</v>
-      </c>
-      <c r="C372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373">
-        <v>41844</v>
-      </c>
-      <c r="B373">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374">
-        <v>41944</v>
-      </c>
-      <c r="B374">
-        <v>0.44</v>
-      </c>
-      <c r="C374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375">
-        <v>42044</v>
-      </c>
-      <c r="B375">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="C375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376">
-        <v>42146</v>
-      </c>
-      <c r="B376">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377">
-        <v>42246</v>
-      </c>
-      <c r="B377">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="C377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378">
-        <v>42346</v>
-      </c>
-      <c r="B378">
-        <v>0.39000000000000001</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379">
-        <v>42448</v>
-      </c>
-      <c r="B379">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380">
-        <v>42548</v>
-      </c>
-      <c r="B380">
-        <v>0.39000000000000001</v>
-      </c>
-      <c r="C380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381">
-        <v>42648</v>
-      </c>
-      <c r="B381">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="C381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382">
-        <v>42768</v>
-      </c>
-      <c r="B382">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="C382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383">
-        <v>42869</v>
-      </c>
-      <c r="B383">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384">
-        <v>42969</v>
-      </c>
-      <c r="B384">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385">
-        <v>43070</v>
-      </c>
-      <c r="B385">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386">
-        <v>43171</v>
-      </c>
-      <c r="B386">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="C386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387">
-        <v>43271</v>
-      </c>
-      <c r="B387">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="C387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388">
-        <v>43372</v>
-      </c>
-      <c r="B388">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389">
-        <v>43473</v>
-      </c>
-      <c r="B389">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="C389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390">
-        <v>43573</v>
-      </c>
-      <c r="B390">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391">
-        <v>43674</v>
-      </c>
-      <c r="B391">
-        <v>0.37</v>
-      </c>
-      <c r="C391">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392">
-        <v>43775</v>
-      </c>
-      <c r="B392">
-        <v>0.38</v>
-      </c>
-      <c r="C392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393">
-        <v>43875</v>
-      </c>
-      <c r="B393">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="C393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394">
-        <v>43977</v>
-      </c>
-      <c r="B394">
-        <v>0.38</v>
-      </c>
-      <c r="C394">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395">
-        <v>44077</v>
-      </c>
-      <c r="B395">
-        <v>0.39000000000000001</v>
-      </c>
-      <c r="C395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396">
-        <v>44178</v>
-      </c>
-      <c r="B396">
-        <v>0.42999999999999999</v>
-      </c>
-      <c r="C396">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397">
-        <v>44279</v>
-      </c>
-      <c r="B397">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="C397">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398">
-        <v>44379</v>
-      </c>
-      <c r="B398">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399">
-        <v>44480</v>
-      </c>
-      <c r="B399">
-        <v>0.5</v>
-      </c>
-      <c r="C399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400">
-        <v>44581</v>
-      </c>
-      <c r="B400">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401">
-        <v>44681</v>
-      </c>
-      <c r="B401">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402">
-        <v>44801</v>
-      </c>
-      <c r="B402">
-        <v>0.53000000000000003</v>
-      </c>
-      <c r="C402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403">
-        <v>44901</v>
-      </c>
-      <c r="B403">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404">
-        <v>45002</v>
-      </c>
-      <c r="B404">
-        <v>0.58999999999999997</v>
-      </c>
-      <c r="C404">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405">
-        <v>45103</v>
-      </c>
-      <c r="B405">
-        <v>0.63</v>
-      </c>
-      <c r="C405">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406">
-        <v>45203</v>
-      </c>
-      <c r="B406">
-        <v>0.64000000000000001</v>
-      </c>
-      <c r="C406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407">
-        <v>45305</v>
-      </c>
-      <c r="B407">
-        <v>0.60999999999999999</v>
-      </c>
-      <c r="C407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408">
-        <v>45405</v>
-      </c>
-      <c r="B408">
-        <v>0.58999999999999997</v>
-      </c>
-      <c r="C408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409">
-        <v>45505</v>
-      </c>
-      <c r="B409">
-        <v>0.58999999999999997</v>
-      </c>
-      <c r="C409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410">
-        <v>45607</v>
-      </c>
-      <c r="B410">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411">
-        <v>45707</v>
-      </c>
-      <c r="B411">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412">
-        <v>45807</v>
-      </c>
-      <c r="B412">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413">
-        <v>45909</v>
-      </c>
-      <c r="B413">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414">
-        <v>46009</v>
-      </c>
-      <c r="B414">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415">
-        <v>46110</v>
-      </c>
-      <c r="B415">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416">
-        <v>46211</v>
-      </c>
-      <c r="B416">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417">
-        <v>46311</v>
-      </c>
-      <c r="B417">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418">
-        <v>46412</v>
-      </c>
-      <c r="B418">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419">
-        <v>46513</v>
-      </c>
-      <c r="B419">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420">
-        <v>46613</v>
-      </c>
-      <c r="B420">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C420">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421">
-        <v>46714</v>
-      </c>
-      <c r="B421">
-        <v>0.53000000000000003</v>
-      </c>
-      <c r="C421">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422">
-        <v>46834</v>
-      </c>
-      <c r="B422">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423">
-        <v>46934</v>
-      </c>
-      <c r="B423">
-        <v>0.5</v>
-      </c>
-      <c r="C423">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424">
-        <v>47034</v>
-      </c>
-      <c r="B424">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C424">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425">
-        <v>47136</v>
-      </c>
-      <c r="B425">
-        <v>0.5</v>
-      </c>
-      <c r="C425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426">
-        <v>47236</v>
-      </c>
-      <c r="B426">
-        <v>0.5</v>
-      </c>
-      <c r="C426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427">
-        <v>47337</v>
-      </c>
-      <c r="B427">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428">
-        <v>47438</v>
-      </c>
-      <c r="B428">
-        <v>0.5</v>
-      </c>
-      <c r="C428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429">
-        <v>47538</v>
-      </c>
-      <c r="B429">
-        <v>0.5</v>
-      </c>
-      <c r="C429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430">
-        <v>47639</v>
-      </c>
-      <c r="B430">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431">
-        <v>47740</v>
-      </c>
-      <c r="B431">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432">
-        <v>47840</v>
-      </c>
-      <c r="B432">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433">
-        <v>47942</v>
-      </c>
-      <c r="B433">
-        <v>0.53000000000000003</v>
-      </c>
-      <c r="C433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434">
-        <v>48042</v>
-      </c>
-      <c r="B434">
-        <v>0.53000000000000003</v>
-      </c>
-      <c r="C434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435">
-        <v>48142</v>
-      </c>
-      <c r="B435">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436">
-        <v>48244</v>
-      </c>
-      <c r="B436">
-        <v>0.53000000000000003</v>
-      </c>
-      <c r="C436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437">
-        <v>48344</v>
-      </c>
-      <c r="B437">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438">
-        <v>48444</v>
-      </c>
-      <c r="B438">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439">
-        <v>48546</v>
-      </c>
-      <c r="B439">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440">
-        <v>48646</v>
-      </c>
-      <c r="B440">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C440">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441">
-        <v>48747</v>
-      </c>
-      <c r="B441">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442">
-        <v>48866</v>
-      </c>
-      <c r="B442">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443">
-        <v>48967</v>
-      </c>
-      <c r="B443">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C443">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444">
-        <v>49068</v>
-      </c>
-      <c r="B444">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445">
-        <v>49168</v>
-      </c>
-      <c r="B445">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C445">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446">
-        <v>49269</v>
-      </c>
-      <c r="B446">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447">
-        <v>49370</v>
-      </c>
-      <c r="B447">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C447">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448">
-        <v>49470</v>
-      </c>
-      <c r="B448">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449">
-        <v>49571</v>
-      </c>
-      <c r="B449">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C449">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450">
-        <v>49672</v>
-      </c>
-      <c r="B450">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C450">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451">
-        <v>49772</v>
-      </c>
-      <c r="B451">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C451">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452">
-        <v>49874</v>
-      </c>
-      <c r="B452">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C452">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453">
-        <v>49974</v>
-      </c>
-      <c r="B453">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="C453">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454">
-        <v>50074</v>
-      </c>
-      <c r="B454">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C454">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455">
-        <v>50176</v>
-      </c>
-      <c r="B455">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456">
-        <v>50276</v>
-      </c>
-      <c r="B456">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457">
-        <v>50377</v>
-      </c>
-      <c r="B457">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458">
-        <v>50478</v>
-      </c>
-      <c r="B458">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459">
-        <v>50578</v>
-      </c>
-      <c r="B459">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460">
-        <v>50679</v>
-      </c>
-      <c r="B460">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461">
-        <v>50780</v>
-      </c>
-      <c r="B461">
-        <v>0.47999999999999998</v>
-      </c>
-      <c r="C461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462">
-        <v>50899</v>
-      </c>
-      <c r="B462">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463">
-        <v>50999</v>
-      </c>
-      <c r="B463">
-        <v>0.45000000000000001</v>
-      </c>
-      <c r="C463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464">
-        <v>51101</v>
-      </c>
-      <c r="B464">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="C464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465">
-        <v>51201</v>
-      </c>
-      <c r="B465">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466">
-        <v>51301</v>
-      </c>
-      <c r="B466">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="C466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467">
-        <v>51403</v>
-      </c>
-      <c r="B467">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468">
-        <v>51503</v>
-      </c>
-      <c r="B468">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469">
-        <v>51603</v>
-      </c>
-      <c r="B469">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470">
-        <v>51705</v>
-      </c>
-      <c r="B470">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471">
-        <v>51805</v>
-      </c>
-      <c r="B471">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472">
-        <v>51906</v>
-      </c>
-      <c r="B472">
-        <v>0.51000000000000001</v>
-      </c>
-      <c r="C472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473">
-        <v>52007</v>
-      </c>
-      <c r="B473">
-        <v>0.47999999999999998</v>
-      </c>
-      <c r="C473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474">
-        <v>52107</v>
-      </c>
-      <c r="B474">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475">
-        <v>52209</v>
-      </c>
-      <c r="B475">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="C475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476">
-        <v>52309</v>
-      </c>
-      <c r="B476">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="C476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477">
-        <v>52409</v>
-      </c>
-      <c r="B477">
-        <v>0.46999999999999997</v>
-      </c>
-      <c r="C477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478">
-        <v>52511</v>
-      </c>
-      <c r="B478">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="C478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479">
-        <v>52611</v>
-      </c>
-      <c r="B479">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480">
-        <v>52711</v>
-      </c>
-      <c r="B480">
-        <v>0.58999999999999997</v>
-      </c>
-      <c r="C480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481">
-        <v>52813</v>
-      </c>
-      <c r="B481">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482">
-        <v>52931</v>
-      </c>
-      <c r="B482">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483">
-        <v>53032</v>
-      </c>
-      <c r="B483">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484">
-        <v>53133</v>
-      </c>
-      <c r="B484">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485">
-        <v>53234</v>
-      </c>
-      <c r="B485">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486">
-        <v>53334</v>
-      </c>
-      <c r="B486">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487">
-        <v>53435</v>
-      </c>
-      <c r="B487">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488">
-        <v>53536</v>
-      </c>
-      <c r="B488">
-        <v>0.58999999999999997</v>
-      </c>
-      <c r="C488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489">
-        <v>53636</v>
-      </c>
-      <c r="B489">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="C489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490">
-        <v>53737</v>
-      </c>
-      <c r="B490">
-        <v>0.58999999999999997</v>
-      </c>
-      <c r="C490">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491">
-        <v>53838</v>
-      </c>
-      <c r="B491">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C491">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492">
-        <v>53939</v>
-      </c>
-      <c r="B492">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493">
-        <v>54039</v>
-      </c>
-      <c r="B493">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C493">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494">
-        <v>54140</v>
-      </c>
-      <c r="B494">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495">
-        <v>54241</v>
-      </c>
-      <c r="B495">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C495">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496">
-        <v>54342</v>
-      </c>
-      <c r="B496">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497">
-        <v>54442</v>
-      </c>
-      <c r="B497">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C497">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498">
-        <v>54543</v>
-      </c>
-      <c r="B498">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C498">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499">
-        <v>54644</v>
-      </c>
-      <c r="B499">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C499">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500">
-        <v>54745</v>
-      </c>
-      <c r="B500">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="C500">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501">
-        <v>54845</v>
-      </c>
-      <c r="B501">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C501">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Test_A.xlsx
+++ b/Test_A.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="3">
   <si>
     <t>Var1</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -84,11 +84,67 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -122,6 +178,62 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,25 +252,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>76.920000000000002</v>
+        <v>-89.010000000000005</v>
       </c>
       <c r="B2">
-        <v>0.17999999999999999</v>
+        <v>12.970000000000001</v>
       </c>
       <c r="C2">
-        <v>-80.069999999999993</v>
+        <v>109.52</v>
       </c>
     </row>
   </sheetData>
@@ -170,520 +282,523 @@
   <dimension ref="A1:C330"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5.7109375" customWidth="true"/>
     <col min="2" max="2" width="4.7109375" customWidth="true"/>
     <col min="3" max="3" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>605</v>
+        <v>303</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>705</v>
+        <v>403</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>806</v>
+        <v>505</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>907</v>
+        <v>605</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1007</v>
+        <v>707</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>1009</v>
+      </c>
+      <c r="B7">
+        <v>0.13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>1109</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8">
       <c r="B8">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1310</v>
+        <v>1210</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1411</v>
+        <v>1311</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1512</v>
+        <v>1412</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1613</v>
+        <v>1512</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1714</v>
+        <v>1614</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1814</v>
+        <v>1714</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1916</v>
+        <v>1816</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2016</v>
+        <v>1916</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2135</v>
+        <v>2017</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2236</v>
+        <v>2136</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2337</v>
+        <v>2237</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2438</v>
+        <v>2338</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2538</v>
+        <v>2439</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2640</v>
+        <v>2540</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2740</v>
+        <v>2641</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2841</v>
+        <v>2741</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2942</v>
+        <v>2843</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>3042</v>
+        <v>2943</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>3143</v>
+        <v>3044</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>3244</v>
+        <v>3145</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>3345</v>
+        <v>3246</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>3446</v>
+        <v>3346</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>3547</v>
+        <v>3448</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>3647</v>
+        <v>3548</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>3749</v>
+        <v>3650</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>3849</v>
+        <v>3750</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3950</v>
+        <v>3851</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4051</v>
+        <v>3952</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4170</v>
+        <v>4053</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4271</v>
+        <v>4172</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>4371</v>
+        <v>4273</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4473</v>
+        <v>4374</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4573</v>
+        <v>4475</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4674</v>
+        <v>4576</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4775</v>
+        <v>4677</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4876</v>
+        <v>4778</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4976</v>
+        <v>4878</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C45">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>5078</v>
+        <v>4980</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C46">
-        <v>-1</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>5882</v>
+        <v>5080</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -691,21 +806,21 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>5983</v>
+        <v>5181</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>6084</v>
+        <v>5282</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -713,10 +828,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>6203</v>
+        <v>5383</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -724,21 +839,21 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>6303</v>
+        <v>5484</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>6404</v>
+        <v>5585</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -746,10 +861,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>6505</v>
+        <v>5685</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -757,10 +872,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>6606</v>
+        <v>5787</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -768,10 +883,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>6707</v>
+        <v>5887</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -779,21 +894,21 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>6807</v>
+        <v>5988</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.27000000000000002</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>6908</v>
+        <v>6089</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -801,1616 +916,1616 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>7009</v>
+        <v>6209</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="C58">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>6715</v>
+        <v>6309</v>
       </c>
       <c r="B59">
-        <v>0.91000000000000003</v>
+        <v>0.39000000000000001</v>
       </c>
       <c r="C59">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>6816</v>
+        <v>6410</v>
       </c>
       <c r="B60">
-        <v>0.93999999999999995</v>
+        <v>0.38</v>
       </c>
       <c r="C60">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>6916</v>
+        <v>6511</v>
       </c>
       <c r="B61">
-        <v>0.93999999999999995</v>
+        <v>0.39000000000000001</v>
       </c>
       <c r="C61">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>7018</v>
+        <v>6612</v>
       </c>
       <c r="B62">
-        <v>0.81999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C62">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>7118</v>
+        <v>6712</v>
       </c>
       <c r="B63">
-        <v>0.79000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="C63">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>7219</v>
+        <v>6814</v>
       </c>
       <c r="B64">
-        <v>0.82999999999999996</v>
+        <v>0.39000000000000001</v>
       </c>
       <c r="C64">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>7320</v>
+        <v>6914</v>
       </c>
       <c r="B65">
-        <v>0.85999999999999999</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="C65">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>7421</v>
+        <v>7015</v>
       </c>
       <c r="B66">
-        <v>0.82999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="C66">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>7521</v>
+        <v>7116</v>
       </c>
       <c r="B67">
-        <v>0.77000000000000002</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C67">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>7623</v>
+        <v>7217</v>
       </c>
       <c r="B68">
-        <v>0.71999999999999997</v>
+        <v>0.37</v>
       </c>
       <c r="C68">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>7723</v>
+        <v>7319</v>
       </c>
       <c r="B69">
-        <v>0.69999999999999996</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C69">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>7825</v>
+        <v>7419</v>
       </c>
       <c r="B70">
-        <v>0.71999999999999997</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C70">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>7926</v>
+        <v>7520</v>
       </c>
       <c r="B71">
-        <v>0.71999999999999997</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C71">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>8026</v>
+        <v>7621</v>
       </c>
       <c r="B72">
-        <v>0.78000000000000003</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="C72">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>8128</v>
+        <v>7722</v>
       </c>
       <c r="B73">
-        <v>0.78000000000000003</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C73">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>8246</v>
+        <v>7822</v>
       </c>
       <c r="B74">
-        <v>1.1499999999999999</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="C74">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>8348</v>
+        <v>7924</v>
       </c>
       <c r="B75">
-        <v>1.0800000000000001</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="C75">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>8448</v>
+        <v>8024</v>
       </c>
       <c r="B76">
-        <v>1.02</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="C76">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>8550</v>
+        <v>8125</v>
       </c>
       <c r="B77">
-        <v>1.0900000000000001</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="C77">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>8650</v>
+        <v>8244</v>
       </c>
       <c r="B78">
-        <v>1.1200000000000001</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="C78">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>8751</v>
+        <v>8346</v>
       </c>
       <c r="B79">
-        <v>1.0900000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C79">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>8852</v>
+        <v>8446</v>
       </c>
       <c r="B80">
-        <v>1.1000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="C80">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>8953</v>
+        <v>8547</v>
       </c>
       <c r="B81">
-        <v>1.1100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="C81">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>9053</v>
+        <v>8648</v>
       </c>
       <c r="B82">
-        <v>1.1200000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C82">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>9155</v>
+        <v>8749</v>
       </c>
       <c r="B83">
-        <v>1.0900000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C83">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>9255</v>
+        <v>8850</v>
       </c>
       <c r="B84">
-        <v>1.0900000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C84">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>9356</v>
+        <v>8951</v>
       </c>
       <c r="B85">
-        <v>1.0900000000000001</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="C85">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>9457</v>
+        <v>9052</v>
       </c>
       <c r="B86">
-        <v>1.0900000000000001</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="C86">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>9558</v>
+        <v>9153</v>
       </c>
       <c r="B87">
-        <v>1.0900000000000001</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="C87">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>9659</v>
+        <v>9254</v>
       </c>
       <c r="B88">
-        <v>1.0900000000000001</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="C88">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>9760</v>
+        <v>9354</v>
       </c>
       <c r="B89">
-        <v>1.0600000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C89">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>9860</v>
+        <v>9456</v>
       </c>
       <c r="B90">
-        <v>1.1200000000000001</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="C90">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>9962</v>
+        <v>9556</v>
       </c>
       <c r="B91">
-        <v>1.21</v>
+        <v>0.62</v>
       </c>
       <c r="C91">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>10063</v>
+        <v>9657</v>
       </c>
       <c r="B92">
-        <v>1.27</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C92">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>10163</v>
+        <v>9759</v>
       </c>
       <c r="B93">
-        <v>1.27</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="C93">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>10283</v>
+        <v>9859</v>
       </c>
       <c r="B94">
-        <v>1.51</v>
+        <v>0.63</v>
       </c>
       <c r="C94">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>10384</v>
+        <v>9960</v>
       </c>
       <c r="B95">
-        <v>1.4199999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="C95">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>10485</v>
+        <v>10061</v>
       </c>
       <c r="B96">
-        <v>1.3700000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="C96">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>10585</v>
+        <v>10162</v>
       </c>
       <c r="B97">
-        <v>1.3100000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="C97">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>10687</v>
+        <v>10281</v>
       </c>
       <c r="B98">
-        <v>1.1499999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="C98">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>10787</v>
+        <v>10382</v>
       </c>
       <c r="B99">
-        <v>1.1699999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="C99">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>10888</v>
+        <v>10483</v>
       </c>
       <c r="B100">
-        <v>1.0600000000000001</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="C100">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>10989</v>
+        <v>10584</v>
       </c>
       <c r="B101">
-        <v>1.01</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="C101">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>11090</v>
+        <v>10685</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="C102">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>11191</v>
+        <v>10786</v>
       </c>
       <c r="B103">
-        <v>1.0700000000000001</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="C103">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>11292</v>
+        <v>10887</v>
       </c>
       <c r="B104">
-        <v>1.1200000000000001</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="C104">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
-        <v>11393</v>
-      </c>
       <c r="B105">
-        <v>1.05</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C105">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>11494</v>
+        <v>11190</v>
       </c>
       <c r="B106">
-        <v>1.1399999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C106">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>11595</v>
+        <v>11291</v>
       </c>
       <c r="B107">
-        <v>1.05</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="C107">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>11695</v>
+        <v>11594</v>
       </c>
       <c r="B108">
-        <v>1.02</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C108">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>11797</v>
+        <v>11694</v>
       </c>
       <c r="B109">
-        <v>1.0900000000000001</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C109">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>11898</v>
+        <v>11795</v>
       </c>
       <c r="B110">
-        <v>1.22</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C110">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>11998</v>
+        <v>12099</v>
       </c>
       <c r="B111">
-        <v>1.29</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="C111">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>12100</v>
+        <v>12199</v>
       </c>
       <c r="B112">
-        <v>1.27</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="C112">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>12200</v>
+        <v>12319</v>
       </c>
       <c r="B113">
-        <v>1.28</v>
+        <v>1.3600000000000001</v>
       </c>
       <c r="C113">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>12320</v>
+        <v>12419</v>
       </c>
       <c r="B114">
         <v>1.3</v>
       </c>
       <c r="C114">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>12420</v>
+        <v>2520</v>
       </c>
       <c r="B115">
-        <v>1.2</v>
+        <v>1.3700000000000001</v>
       </c>
       <c r="C115">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>12522</v>
+        <v>12722</v>
       </c>
       <c r="B116">
-        <v>1.1399999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="C116">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>12622</v>
+        <v>12824</v>
       </c>
       <c r="B117">
-        <v>1.1599999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="C117">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>12723</v>
+        <v>12924</v>
       </c>
       <c r="B118">
-        <v>1.1899999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="C118">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>12825</v>
+        <v>13025</v>
       </c>
       <c r="B119">
-        <v>1.1499999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="C119">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>12925</v>
+        <v>13126</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="C120">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>13026</v>
+        <v>13227</v>
       </c>
       <c r="B121">
-        <v>1.0900000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="C121">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>13127</v>
+        <v>13328</v>
       </c>
       <c r="B122">
-        <v>1.1699999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="C122">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>13228</v>
+        <v>13429</v>
       </c>
       <c r="B123">
-        <v>1.0600000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="C123">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>13329</v>
+        <v>13530</v>
       </c>
       <c r="B124">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="C124">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>13430</v>
+        <v>13630</v>
       </c>
       <c r="B125">
-        <v>1.0900000000000001</v>
+        <v>1.1799999999999999</v>
       </c>
       <c r="C125">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>13530</v>
+        <v>13732</v>
       </c>
       <c r="B126">
-        <v>1.0700000000000001</v>
+        <v>1.1699999999999999</v>
       </c>
       <c r="C126">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>13632</v>
+        <v>13832</v>
       </c>
       <c r="B127">
-        <v>1.01</v>
+        <v>1.1899999999999999</v>
       </c>
       <c r="C127">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>13733</v>
+        <v>13934</v>
       </c>
       <c r="B128">
-        <v>0.98999999999999999</v>
+        <v>1.1799999999999999</v>
       </c>
       <c r="C128">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>13833</v>
+        <v>14035</v>
       </c>
       <c r="B129">
-        <v>0.93000000000000005</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C129">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>13935</v>
+        <v>14135</v>
       </c>
       <c r="B130">
-        <v>0.90000000000000002</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C130">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>14035</v>
+        <v>14237</v>
       </c>
       <c r="B131">
-        <v>0.93999999999999995</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C131">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>14136</v>
+        <v>14355</v>
       </c>
       <c r="B132">
-        <v>1.1200000000000001</v>
+        <v>1.6299999999999999</v>
       </c>
       <c r="C132">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>14237</v>
+        <v>14457</v>
       </c>
       <c r="B133">
-        <v>1.25</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C133">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>14357</v>
+        <v>14558</v>
       </c>
       <c r="B134">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="C134">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>14457</v>
+        <v>14659</v>
       </c>
       <c r="B135">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="C135">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>14558</v>
+        <v>14760</v>
       </c>
       <c r="B136">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="C136">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>14660</v>
+        <v>14860</v>
       </c>
       <c r="B137">
-        <v>1.1499999999999999</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C137">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>14760</v>
+        <v>14962</v>
       </c>
       <c r="B138">
-        <v>1.22</v>
+        <v>1.6699999999999999</v>
       </c>
       <c r="C138">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>14861</v>
+        <v>15062</v>
       </c>
       <c r="B139">
-        <v>1.3600000000000001</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C139">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>14962</v>
+        <v>15163</v>
       </c>
       <c r="B140">
-        <v>1.3100000000000001</v>
+        <v>1.6299999999999999</v>
       </c>
       <c r="C140">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>15063</v>
+        <v>15265</v>
       </c>
       <c r="B141">
-        <v>1.1799999999999999</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C141">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>15164</v>
+        <v>15365</v>
       </c>
       <c r="B142">
-        <v>1.03</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C142">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>15265</v>
+        <v>15467</v>
       </c>
       <c r="B143">
-        <v>0.96999999999999997</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C143">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>15365</v>
+        <v>15567</v>
       </c>
       <c r="B144">
-        <v>0.82999999999999996</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C144">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>15467</v>
+        <v>15668</v>
       </c>
       <c r="B145">
-        <v>0.79000000000000004</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="C145">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>15568</v>
+        <v>15770</v>
       </c>
       <c r="B146">
-        <v>1.1000000000000001</v>
+        <v>1.5900000000000001</v>
       </c>
       <c r="C146">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>15668</v>
+        <v>15870</v>
       </c>
       <c r="B147">
-        <v>1.3500000000000001</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="C147">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>15770</v>
+        <v>15971</v>
       </c>
       <c r="B148">
-        <v>1.4399999999999999</v>
+        <v>1.6699999999999999</v>
       </c>
       <c r="C148">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>15870</v>
+        <v>16072</v>
       </c>
       <c r="B149">
-        <v>1.5</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C149">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>15971</v>
+        <v>16173</v>
       </c>
       <c r="B150">
-        <v>1.53</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C150">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>16072</v>
+        <v>16273</v>
       </c>
       <c r="B151">
-        <v>1.55</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C151">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>16173</v>
+        <v>16393</v>
       </c>
       <c r="B152">
-        <v>1.4099999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="C152">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>16275</v>
+        <v>16494</v>
       </c>
       <c r="B153">
-        <v>1.05</v>
+        <v>1.4299999999999999</v>
       </c>
       <c r="C153">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>16393</v>
+        <v>16595</v>
       </c>
       <c r="B154">
-        <v>0.90000000000000002</v>
+        <v>1.5700000000000001</v>
       </c>
       <c r="C154">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>16495</v>
+        <v>16696</v>
       </c>
       <c r="B155">
-        <v>0.55000000000000004</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="C155">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>16595</v>
+        <v>16797</v>
       </c>
       <c r="B156">
-        <v>0.53000000000000003</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C156">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>16696</v>
+        <v>16898</v>
       </c>
       <c r="B157">
-        <v>0.66000000000000003</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="C157">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>16797</v>
+        <v>16998</v>
       </c>
       <c r="B158">
-        <v>0.76000000000000001</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="C158">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>16898</v>
+        <v>17100</v>
       </c>
       <c r="B159">
-        <v>0.83999999999999997</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="C159">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>16999</v>
+        <v>17201</v>
       </c>
       <c r="B160">
-        <v>0.78000000000000003</v>
+        <v>1.5900000000000001</v>
       </c>
       <c r="C160">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>17100</v>
+        <v>17302</v>
       </c>
       <c r="B161">
-        <v>0.66000000000000003</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C161">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>17201</v>
+        <v>17403</v>
       </c>
       <c r="B162">
-        <v>0.68000000000000005</v>
+        <v>1.6399999999999999</v>
       </c>
       <c r="C162">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>17302</v>
+        <v>17503</v>
       </c>
       <c r="B163">
-        <v>0.75</v>
+        <v>1.6799999999999999</v>
       </c>
       <c r="C163">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>17403</v>
+        <v>17605</v>
       </c>
       <c r="B164">
-        <v>0.78000000000000003</v>
+        <v>1.74</v>
       </c>
       <c r="C164">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>17503</v>
+        <v>17705</v>
       </c>
       <c r="B165">
-        <v>0.76000000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="C165">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>17605</v>
+        <v>17806</v>
       </c>
       <c r="B166">
-        <v>0.5</v>
+        <v>1.6899999999999999</v>
       </c>
       <c r="C166">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>17705</v>
+        <v>17908</v>
       </c>
       <c r="B167">
-        <v>0.63</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C167">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168">
+      <c r="A168">
+        <v>18008</v>
+      </c>
       <c r="B168">
-        <v>0.46999999999999997</v>
+        <v>1.5700000000000001</v>
       </c>
       <c r="C168">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>18008</v>
+        <v>18109</v>
       </c>
       <c r="B169">
-        <v>0.089999999999999997</v>
+        <v>1.5800000000000001</v>
       </c>
       <c r="C169">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>18110</v>
+        <v>18430</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C170">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>18430</v>
+        <v>18531</v>
       </c>
       <c r="B171">
-        <v>0.23000000000000001</v>
+        <v>2.02</v>
       </c>
       <c r="C171">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>18531</v>
+        <v>18633</v>
       </c>
       <c r="B172">
-        <v>0.42999999999999999</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C172">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>18632</v>
+        <v>18733</v>
       </c>
       <c r="B173">
-        <v>0.52000000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="C173">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>18733</v>
+        <v>18834</v>
       </c>
       <c r="B174">
-        <v>0.47999999999999998</v>
+        <v>1.96</v>
       </c>
       <c r="C174">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>18834</v>
+        <v>18935</v>
       </c>
       <c r="B175">
-        <v>0.57999999999999996</v>
+        <v>1.9099999999999999</v>
       </c>
       <c r="C175">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>18935</v>
+        <v>19036</v>
       </c>
       <c r="B176">
-        <v>0.73999999999999999</v>
+        <v>1.9099999999999999</v>
       </c>
       <c r="C176">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>19035</v>
+        <v>19138</v>
       </c>
       <c r="B177">
-        <v>0.87</v>
+        <v>1.8700000000000001</v>
       </c>
       <c r="C177">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>19137</v>
+        <v>19238</v>
       </c>
       <c r="B178">
-        <v>1.02</v>
+        <v>1.8200000000000001</v>
       </c>
       <c r="C178">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>19237</v>
+        <v>19339</v>
       </c>
       <c r="B179">
-        <v>1.1299999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="C179">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>19338</v>
+        <v>19641</v>
       </c>
       <c r="B180">
-        <v>1.26</v>
+        <v>1.6599999999999999</v>
       </c>
       <c r="C180">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>19440</v>
+        <v>19743</v>
       </c>
       <c r="B181">
-        <v>1.3600000000000001</v>
+        <v>1.6100000000000001</v>
       </c>
       <c r="C181">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>19540</v>
+        <v>19844</v>
       </c>
       <c r="B182">
-        <v>1.3400000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="C182">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>19843</v>
+        <v>19944</v>
       </c>
       <c r="B183">
-        <v>1.0600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="C183">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>19944</v>
+        <v>20046</v>
       </c>
       <c r="B184">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="C184">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>20045</v>
+        <v>20146</v>
       </c>
       <c r="B185">
-        <v>0.81999999999999995</v>
+        <v>1.49</v>
       </c>
       <c r="C185">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>20146</v>
+        <v>20248</v>
       </c>
       <c r="B186">
-        <v>0.93000000000000005</v>
+        <v>1.49</v>
       </c>
       <c r="C186">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>20247</v>
+        <v>20468</v>
       </c>
       <c r="B187">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="C187">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>20348</v>
+        <v>20569</v>
       </c>
       <c r="B188">
-        <v>1.1299999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="C188">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>20467</v>
+        <v>20669</v>
       </c>
       <c r="B189">
-        <v>1.1899999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="C189">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>20568</v>
+        <v>20771</v>
       </c>
       <c r="B190">
-        <v>1.24</v>
+        <v>1.6499999999999999</v>
       </c>
       <c r="C190">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>20669</v>
+        <v>20871</v>
       </c>
       <c r="B191">
-        <v>1.3100000000000001</v>
+        <v>1.5700000000000001</v>
       </c>
       <c r="C191">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>20972</v>
+        <v>20973</v>
       </c>
       <c r="B192">
-        <v>1.28</v>
+        <v>1.3600000000000001</v>
       </c>
       <c r="C192">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>21072</v>
+        <v>21074</v>
       </c>
       <c r="B193">
-        <v>1.3200000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="C193">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>21173</v>
+        <v>21174</v>
       </c>
       <c r="B194">
-        <v>1.3500000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C194">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>21275</v>
+        <v>21276</v>
       </c>
       <c r="B195">
-        <v>1.3500000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C195">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>21375</v>
+        <v>21477</v>
       </c>
       <c r="B196">
-        <v>1.3500000000000001</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="C196">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>21477</v>
+        <v>21578</v>
       </c>
       <c r="B197">
-        <v>1.3</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="C197">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>21577</v>
+        <v>21679</v>
       </c>
       <c r="B198">
-        <v>1.29</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="C198">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>21678</v>
+        <v>21780</v>
       </c>
       <c r="B199">
-        <v>1.3400000000000001</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C199">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>21981</v>
+        <v>21881</v>
       </c>
       <c r="B200">
-        <v>1.3700000000000001</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="C200">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>22082</v>
+        <v>21982</v>
       </c>
       <c r="B201">
-        <v>1.3999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="C201">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>22183</v>
+        <v>22083</v>
       </c>
       <c r="B202">
-        <v>1.3999999999999999</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="C202">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>22283</v>
+        <v>22284</v>
       </c>
       <c r="B203">
-        <v>1.4399999999999999</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="C203">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>22385</v>
+        <v>22386</v>
       </c>
       <c r="B204">
-        <v>1.46</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="C204">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205">
@@ -2418,76 +2533,76 @@
         <v>22504</v>
       </c>
       <c r="B205">
-        <v>1.4399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="C205">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>22605</v>
+        <v>22606</v>
       </c>
       <c r="B206">
-        <v>1.4299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C206">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>22705</v>
+        <v>22707</v>
       </c>
       <c r="B207">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="C207">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>22807</v>
+        <v>22808</v>
       </c>
       <c r="B208">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="C208">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>22908</v>
+        <v>22909</v>
       </c>
       <c r="B209">
-        <v>1.49</v>
+        <v>1.8400000000000001</v>
       </c>
       <c r="C209">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>23008</v>
+        <v>23212</v>
       </c>
       <c r="B210">
-        <v>1.52</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C210">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>23110</v>
+        <v>23312</v>
       </c>
       <c r="B211">
-        <v>1.55</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C211">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212">
